--- a/examples/sample_data/cfos_analysis/counts.xlsx
+++ b/examples/sample_data/cfos_analysis/counts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,41 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>C3-34453_B1_10X_BLA_002</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>C3-34454_B2_10X_BLA_002</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C3-34454_B2_10X_BLA_</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C3-34454_B2_10X_BLA_001</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
